--- a/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
+++ b/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B4724C-6CAF-40C6-9CD0-305B3876A4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C9915E-37EA-4749-B253-05A432FBFFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CBD8A05E-194B-4A69-ABF3-95C3BDF3281B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FADD9D39-CF45-490E-A0E2-7B2E3394353D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,94 +20,67 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">Kita Butuh Pemimpin Yang Benar-benar Cakap, Paham Masalah, Dan Berpihak Pada Rakyat.
-2024 Anies Baswedan Presiden RI 🇮🇩 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ANIES BASWEDAN PRESIDEN RI 2024
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Survey menyatakan warga Jakarta puas kinerjanya Anies Baswedan.Atas dasar itulah Rakyat menilai Anies pantas jadi Presiden PD 2924.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dukung Anies Baswedan untuk Presiden RI ke VIII di pemilu 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RELAWAN  DPD Kabupaten Bangkalan mengajak seluruh komponen bangsa untuk mengusung Bapak Anies Baswedan sebagai calon presiden tahun 2024,” Dr H Engkun Iskandar membacakan pernyataan deklarasi. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Semoga  
-Selalu sehat dan panjang umur, supaya 2024 nanti bisa menghadiri acara pelantikan Anies Baswedan sebagai presiden RI.
-Aamiin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anies Baswedan Presiden!!!! MERDEKA!! 👍👍</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mengerikan kalau Anies Baswedan jadi Presiden. Maka HTI dan FPI akan bangkit lagi dan meminta rehabilitasi. Buntutnya, mereka eksis kembali gelar demo ala 212 berjilid-jilid.    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Nauzubillah gobloknya ... Pilpres 2024, InsyaAllah Anies Baswedan Presiden RI 🇮🇩</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dr H Engkan Iskandar Pimpin Deklarasi Relawan Dukung Anies Baswedan Presiden </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Inilah mantan Goodbener DKI pak Anies Baswedan, Calon Presiden RI yg sangat toleran thd umat beragama non muslim, dan yg terpenting tdk hobi nonton bokep sprti capres idolanya si densi alias  🤪 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Tetap akan kalah sama Anies Baswedan insyaallah jadi presiden RI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In sha Allah Pak Anies Baswedan, akan jadi Presiden, semangat Pak Anies... Harkat martabat mu tak akan jatuh, hanya karna di caci di maki, di hina oleh siapa pun 😇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketika masyarakat yakin bahwa Anies adalah satu2 calon presiden yang bisa mensejahterakan rakyat Indonesia maka keyakinan itu dibuktikan bersama.
-Pilih Anies Baswedan! </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anies Baswedan presiden RI 2024</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tweet</t>
+  </si>
+  <si>
+    <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
+  </si>
+  <si>
+    <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
+  </si>
+  <si>
+    <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
+  </si>
+  <si>
+    <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
+  </si>
+  <si>
+    <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
+  </si>
+  <si>
+    <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
+  </si>
+  <si>
+    <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
+  </si>
+  <si>
+    <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
+  </si>
+  <si>
+    <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
+  </si>
+  <si>
+    <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
+  </si>
+  <si>
+    <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
+  </si>
+  <si>
+    <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
+  </si>
+  <si>
+    <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
+  </si>
+  <si>
+    <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
+  </si>
+  <si>
+    <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -135,11 +108,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,141 +423,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6297F7-0768-45A5-96D9-5ED9985D4EE7}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EED7EE-43FE-40B8-AB15-8B67AF9E50D9}">
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
+++ b/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C5C9915E-37EA-4749-B253-05A432FBFFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A3971-56A6-4CBE-BC0F-005FB6DD8ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FADD9D39-CF45-490E-A0E2-7B2E3394353D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Tweet</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
   </si>
 </sst>
 </file>
@@ -424,91 +427,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EED7EE-43FE-40B8-AB15-8B67AF9E50D9}">
-  <dimension ref="A1:A16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>-1</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>-1</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>-1</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
+++ b/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A3971-56A6-4CBE-BC0F-005FB6DD8ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29091F4F-AF58-42D4-98D1-84253F90930A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FADD9D39-CF45-490E-A0E2-7B2E3394353D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{216F30FF-A067-4C16-B9DA-9C65303026D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,57 +25,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Tweet</t>
   </si>
   <si>
-    <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
-  </si>
-  <si>
-    <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
-  </si>
-  <si>
-    <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
-  </si>
-  <si>
-    <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
-  </si>
-  <si>
-    <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
-  </si>
-  <si>
-    <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
-  </si>
-  <si>
-    <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
-  </si>
-  <si>
-    <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
-  </si>
-  <si>
-    <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
-  </si>
-  <si>
-    <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
-  </si>
-  <si>
-    <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
-  </si>
-  <si>
-    <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
-  </si>
-  <si>
-    <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
-  </si>
-  <si>
-    <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
-  </si>
-  <si>
-    <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
-  </si>
-  <si>
-    <t>Sentiment</t>
+    <t>Teriakan 'Presiden' Sambut Prabowo saat Tiba di Bandara Sumbar #PrabowoDicintaiMilenial #IkutPakde Prabowo Subianto</t>
+  </si>
+  <si>
+    <t>"Prabowo adalah capres Gerindra yang kita tetapkan melalui rapat pimpinan nasional. Menyebutkan bahwa calon presiden hanya tunggal, satu nama, namanya Prabowo Subianto. Calon presiden, bukan calon wakil presiden," kata Sekjen Gerindra, Ahmad Muzani.</t>
+  </si>
+  <si>
+    <t>Presiden Joko Widodo disebut-sebut ingin menduetkan Ganjar Pranowo dan Prabowo Subianto sebagai pasangan bakal calon presiden dan wakil presiden di Pemilu 2024.#newsupdate #news #update #text</t>
+  </si>
+  <si>
+    <t>Pak Prabowo Subianto tetap Calon Presiden. Insyaallah beliau Presiden RI 2024 Amiiin</t>
+  </si>
+  <si>
+    <t>Sementara dari simulasi 3 nama calon Presiden paling populer, jika pemilihan Presiden diadakan sekarang, yang akan dipilih sebagai Presiden oleh responden lagi-lagi adalah Prabowo Subianto (32.7%).</t>
+  </si>
+  <si>
+    <t>Sejauh ini, baru Partai Gerindra dan Partai Kebangkitan Bangsa (PKB) yang menyatakan mendukung Prabowo Subianto maju di kontestasi Pemilihan Presiden (Pilpres) 2024. #PrabowoDicintaiMilenial</t>
+  </si>
+  <si>
+    <t>http://GELORA.CO - Menteri Pertahanan RI Prabowo Subianto mengaku bahwa dirinya sudah mengantongi beberapa nama yang berpotensi mendampinginya di pemilu 2024. Seperti diketahui, #PrabowoSubianto telah ditetapkan sebagai calon presiden (capres) dari partainya Gerindra.…</t>
+  </si>
+  <si>
+    <t>Kendati demikian, Prabowo Subianto sudah punya kriteria sosok calon wakil presiden atau cawapres yang dapat mendampinginya di Pilpres 2024 mendatang. #PrabowoDicintaiMilenial</t>
+  </si>
+  <si>
+    <t>All in Prabowo Subianto For Presiden</t>
+  </si>
+  <si>
+    <t>PRABOWO SUBIANTO DAN ERICK THOIR 100% PRESIDEN DAN WAKIL PRESIDEN 2924 MENANG.... BRAVO 🙏🙏🙏🙏🙏🙏🙏🙏💜💜💜💜💜💜💜💜💜✌✌✌✌⚽⚽⚽⚽⚽👈👈👈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasti lihat, Prabowo Subianto cuma beliau seorang calon presiden yang matang dan paling hebat. </t>
+  </si>
+  <si>
+    <t>Cocok banget ki setuju Presiden Prabowo Subianto Wapres Ganjar Pranowo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rakyat setuju, Prabowo Subianto sebab beliau satu2nya calon presiden yg terbaik dan paling diakui. </t>
+  </si>
+  <si>
+    <t>Elektabilitas calon presiden Partai Gerindra Prabowo Subianto terus meningkat. Dalam simulasi tiga nama, survei PRC tergambar, 35,6% responden menegaskan akan memilih Prabowo sebagai presiden jika Pilpres digelar saat ini.</t>
+  </si>
+  <si>
+    <t>Statement Bapak Presiden ini menguatkan dan memperjelas bahwa beliau menginginkan dan mendukung Bapak H. Prabowo Subianto untuk menjadi Presiden Rapublik Indonesia selanjutnya.</t>
   </si>
 </sst>
 </file>
@@ -426,140 +423,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EED7EE-43FE-40B8-AB15-8B67AF9E50D9}">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F1E865A-488F-4DF9-AE59-21C8BE4E8AE4}">
+  <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection activeCell="A16" sqref="A2:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>-1</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-1</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>-1</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
+++ b/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C0C619-962C-464B-8016-9AB262054891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1340CC-A7D1-4052-935B-8146BC6070AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FADD9D39-CF45-490E-A0E2-7B2E3394353D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9C5EBBB3-396C-4028-8E40-0471BCF17CE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,49 +30,49 @@
     <t>Tweet</t>
   </si>
   <si>
-    <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
-  </si>
-  <si>
-    <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
-  </si>
-  <si>
-    <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
-  </si>
-  <si>
-    <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
-  </si>
-  <si>
-    <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
-  </si>
-  <si>
-    <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
-  </si>
-  <si>
-    <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
-  </si>
-  <si>
-    <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
-  </si>
-  <si>
-    <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
-  </si>
-  <si>
-    <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
-  </si>
-  <si>
-    <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
-  </si>
-  <si>
-    <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
-  </si>
-  <si>
-    <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
-  </si>
-  <si>
-    <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
-  </si>
-  <si>
-    <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
+    <t>Karena "Dosa" di Wadas, Netizen Tolak Calon Presiden dari PDIP, Ganjar Pranowo</t>
+  </si>
+  <si>
+    <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, Untuk membuat Twibbon mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, ada beberapa langkah yang harus diikuti. Pembuatan Twibbon terbilang cepat dan…</t>
+  </si>
+  <si>
+    <t>Alasan PPP Dukung Ganjar Pranowo sebagai Calon Presiden 2024</t>
+  </si>
+  <si>
+    <t>Ketua Umum PDIP Megawati Soekarnoputri resmi mengumumkan Ganjar Pranowo sebagai calon presiden dari PDIP pada Pemilu 2024 mendatang.</t>
+  </si>
+  <si>
+    <t>Ganjar Pranowo the next presiden Indonesia maju 🇮🇩💪🇮🇩</t>
+  </si>
+  <si>
+    <t>Tidak ada yang salah Ganjar Pranowo suka sekali nonton Bokep, masalahnya jadi tak elok soal etika dan martabat karena sekarang Ganjar Pranowo seorang Capres. Jabatan Presiden itu harus bersih dan menjaga norma2 Budi Pekerti. #BongkarTPPUKorupsi349T #BongkarTPPUKorupsi349T</t>
+  </si>
+  <si>
+    <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029,</t>
+  </si>
+  <si>
+    <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. Tengku Zanzabella menyebut Ganjar Pranowo adalah sosok tokoh yang sangat merakyat dan nasionalis</t>
+  </si>
+  <si>
+    <t>Ayo PAN dan GOLKAR mari merapat dan bergabung bersama² mendukung Ganjar Pranowo sbg calon Presiden.</t>
+  </si>
+  <si>
+    <t>Muslim Arbi: Oligarki dan Taipan akan Menjadikan Ganjar Pranowo sebagai Presiden Indonesia 2024!</t>
+  </si>
+  <si>
+    <t>GANJAR PRANOWO, calon Presiden 2024 pilihan PDI Perjuangan 👍</t>
+  </si>
+  <si>
+    <t>SAH..... PPP, HANURA RESMI DUKUNG GANJAR PRANOWO PRESIDEN RI 2024.</t>
+  </si>
+  <si>
+    <t>Betul!! Harapan bangsa lndonesia adalah Ganjar Pranowo menjadi Presiden RI 2024. Sosok yang ramah dan dekat dgn masyarakatnya. #GanjarMenangTotal</t>
+  </si>
+  <si>
+    <t>Bismillah... Ganjar Pranowo Calon Presiden RI 2024</t>
+  </si>
+  <si>
+    <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. *Semua Akan Ganjar Pada Waktunya 🤟Tetap solid dan Jangan Mau Diadu Domba ✊</t>
   </si>
 </sst>
 </file>
@@ -423,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EED7EE-43FE-40B8-AB15-8B67AF9E50D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A3CE37-F94D-4EA5-87C7-7AC5B607BB45}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
+++ b/Aplikasi Skripsi/App/Flask/TestData/Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Alfonso's Personal File\Kuliah\Skripsi\Aplikasi Skripsi\Data Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C1340CC-A7D1-4052-935B-8146BC6070AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C0C619-962C-464B-8016-9AB262054891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9C5EBBB3-396C-4028-8E40-0471BCF17CE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{FADD9D39-CF45-490E-A0E2-7B2E3394353D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,49 +30,49 @@
     <t>Tweet</t>
   </si>
   <si>
-    <t>Karena "Dosa" di Wadas, Netizen Tolak Calon Presiden dari PDIP, Ganjar Pranowo</t>
-  </si>
-  <si>
-    <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, Untuk membuat Twibbon mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029, ada beberapa langkah yang harus diikuti. Pembuatan Twibbon terbilang cepat dan…</t>
-  </si>
-  <si>
-    <t>Alasan PPP Dukung Ganjar Pranowo sebagai Calon Presiden 2024</t>
-  </si>
-  <si>
-    <t>Ketua Umum PDIP Megawati Soekarnoputri resmi mengumumkan Ganjar Pranowo sebagai calon presiden dari PDIP pada Pemilu 2024 mendatang.</t>
-  </si>
-  <si>
-    <t>Ganjar Pranowo the next presiden Indonesia maju 🇮🇩💪🇮🇩</t>
-  </si>
-  <si>
-    <t>Tidak ada yang salah Ganjar Pranowo suka sekali nonton Bokep, masalahnya jadi tak elok soal etika dan martabat karena sekarang Ganjar Pranowo seorang Capres. Jabatan Presiden itu harus bersih dan menjaga norma2 Budi Pekerti. #BongkarTPPUKorupsi349T #BongkarTPPUKorupsi349T</t>
-  </si>
-  <si>
-    <t>Mari gunakan photo kalian di Twibbon dalam rangka mendukung Ganjar Pranowo sebagai Presiden Indonesia 2024-2029,</t>
-  </si>
-  <si>
-    <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. Tengku Zanzabella menyebut Ganjar Pranowo adalah sosok tokoh yang sangat merakyat dan nasionalis</t>
-  </si>
-  <si>
-    <t>Ayo PAN dan GOLKAR mari merapat dan bergabung bersama² mendukung Ganjar Pranowo sbg calon Presiden.</t>
-  </si>
-  <si>
-    <t>Muslim Arbi: Oligarki dan Taipan akan Menjadikan Ganjar Pranowo sebagai Presiden Indonesia 2024!</t>
-  </si>
-  <si>
-    <t>GANJAR PRANOWO, calon Presiden 2024 pilihan PDI Perjuangan 👍</t>
-  </si>
-  <si>
-    <t>SAH..... PPP, HANURA RESMI DUKUNG GANJAR PRANOWO PRESIDEN RI 2024.</t>
-  </si>
-  <si>
-    <t>Betul!! Harapan bangsa lndonesia adalah Ganjar Pranowo menjadi Presiden RI 2024. Sosok yang ramah dan dekat dgn masyarakatnya. #GanjarMenangTotal</t>
-  </si>
-  <si>
-    <t>Bismillah... Ganjar Pranowo Calon Presiden RI 2024</t>
-  </si>
-  <si>
-    <t>Aktivis politik yang juga influencer serta konten kreator diberbagai platform sosial media, Tengku Zanzabella mendukung ganjar pranowo sebagai presiden di tahun 2024. *Semua Akan Ganjar Pada Waktunya 🤟Tetap solid dan Jangan Mau Diadu Domba ✊</t>
+    <t>Politisi PKS: Anies Baswedan Potensial Jadi Presiden RI</t>
+  </si>
+  <si>
+    <t>Yuk sama-sama berikhtiar dan bertawakal, Semoga Pak Anies Baswedan menjadi Presiden RI 2024🙏</t>
+  </si>
+  <si>
+    <t>Jadi Presiden, Anies Baswedan akan Bentuk Kabinet Kompeten, Dorong Wajah Baru Indonesia</t>
+  </si>
+  <si>
+    <t>Calon Presiden 2024 dari Partai NasDem Anies Baswedan bersama Wakil Ketua Umum DPP Partai NasDem kakak Ahmad Ali dan didampingi Ketua Dewan Pertimbangan DPW NasDem Jawa Barat kakak Rajiv melaksanakan silaturahmi dan buka puasa bersama 300 simpul Relawan Anies Baswedan.</t>
+  </si>
+  <si>
+    <t>Semoga Pak Anies Baswedan Makin banyak yang mendukung dan yg mendoakan beliau . Hingga PRESIDEN RI 2024 Biar Menghanguskan Rencana Jahat mereka !! Hempaskan Orang yg penuh Halusinasi biar Stres sendiri ! Si Nganu!!! Yg tidak bisa kerja #APBNMilikRakyatNKRI #APBNMilikRakyatNKRI</t>
+  </si>
+  <si>
+    <t>Anies Baswedan Gak Pantas Jadi Presiden</t>
+  </si>
+  <si>
+    <t>Bakal calon presiden Anies Baswedan mengisi bulan Ramadan dengan bertirakat ke 25 kabupaten maupun kota di Pulau Jawa.</t>
+  </si>
+  <si>
+    <t>Ayo kita perjuangkan ANIES BASWEDAN sampai jadi Presiden RI 🇮🇩tahun 2024</t>
+  </si>
+  <si>
+    <t>Tidak tanggung-tanggung, masyarakat satu kampung di Kampung Batuah, Kelurahan Kuripan, Kecamatan Banjarmasin Timur deklarasi dukungan untuk Anies Baswedan sebagai calon presiden.</t>
+  </si>
+  <si>
+    <t>Presiden PKS mengaku sedang berkeliling untuk bersilaturahmi dengan sejumlah tokoh bangsa dalam rangka mencari cawapres Anies Baswedan.</t>
+  </si>
+  <si>
+    <t>Cepat sembuh giring agar bisa menyaksikan di TV digital Pelantikan Anies Baswedan Presiden 2024.</t>
+  </si>
+  <si>
+    <t>Tetap solid! "Adanya isu jika Partai Ummat tidak bulat mendukung Pak Anies sebagai calon presiden itu sangat disayangkan karena sekali lagi saya tegaskan jika Partai Ummat clear mendukung Bapak Anies Baswedan sebagai capres," Wakil Ketua Umum DPP Partai Ummat, Benny Suharto</t>
+  </si>
+  <si>
+    <t>Anies Baswedan Tidak Pantas Jadi Presiden !</t>
+  </si>
+  <si>
+    <t>Jadi gubernur cuma ngacak² Jakarta. Gimana kalo jadi Presiden, hancurlah sudah ...😔 __________ Pemerintah Provinsi (Pemprov) DKI Jakarta berencana menanamkan kembali sejumlah pohon di kawasan Monumen Nasional (Monas) setelah sebelumnya ditebang di era Gubernur Anies Baswedan.</t>
+  </si>
+  <si>
+    <t>Kalau rakyat menginginkan perubahan Indonesia ke arah yg lebih baik pilihlah Anies Baswedan, tp klu rakyat mau indonesia masih seperti sekarang ini bahkan mungkin lebih parah dari sekarang pilihlah Prabowo CS dan kroni-kroninya.</t>
   </si>
 </sst>
 </file>
@@ -423,11 +423,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A3CE37-F94D-4EA5-87C7-7AC5B607BB45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96EED7EE-43FE-40B8-AB15-8B67AF9E50D9}">
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
